--- a/Sigma Stock/bogdan.popa3@s.unibuc.ro.xlsx
+++ b/Sigma Stock/bogdan.popa3@s.unibuc.ro.xlsx
@@ -20,7 +20,7 @@
     <x:t>Previous Close</x:t>
   </x:si>
   <x:si>
-    <x:t>58.79</x:t>
+    <x:t>58.59</x:t>
   </x:si>
   <x:si>
     <x:t>Open</x:t>
@@ -32,19 +32,19 @@
     <x:t>Bid</x:t>
   </x:si>
   <x:si>
-    <x:t>0.00 x 1000</x:t>
+    <x:t>57.71 x 1000</x:t>
   </x:si>
   <x:si>
     <x:t>Ask</x:t>
   </x:si>
   <x:si>
-    <x:t>63.05 x 1000</x:t>
+    <x:t>60.17 x 1000</x:t>
   </x:si>
   <x:si>
     <x:t>Day's Range</x:t>
   </x:si>
   <x:si>
-    <x:t>58.37 - 60.47</x:t>
+    <x:t>57.70 - 58.57</x:t>
   </x:si>
   <x:si>
     <x:t>52 Week Range</x:t>
@@ -56,7 +56,7 @@
     <x:t>Volume</x:t>
   </x:si>
   <x:si>
-    <x:t>580,478</x:t>
+    <x:t>4,227</x:t>
   </x:si>
   <x:si>
     <x:t>Avg. Volume</x:t>
@@ -65,25 +65,25 @@
     <x:t>347,987</x:t>
   </x:si>
   <x:si>
-    <x:t>167.82</x:t>
+    <x:t>160.95</x:t>
   </x:si>
   <x:si>
     <x:t>174.87</x:t>
   </x:si>
   <x:si>
-    <x:t>0.00 x 1100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.00 x 900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>156.91 - 175.00</x:t>
+    <x:t>160.01 x 1100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>159.97 x 800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>158.61 - 161.61</x:t>
   </x:si>
   <x:si>
     <x:t>156.91 - 402.67</x:t>
   </x:si>
   <x:si>
-    <x:t>175,862,722</x:t>
+    <x:t>15,421,502</x:t>
   </x:si>
   <x:si>
     <x:t>84,475,047</x:t>

--- a/Sigma Stock/bogdan.popa3@s.unibuc.ro.xlsx
+++ b/Sigma Stock/bogdan.popa3@s.unibuc.ro.xlsx
@@ -74,7 +74,7 @@
     <x:t>0.00 x 1100</x:t>
   </x:si>
   <x:si>
-    <x:t>0.00 x 900</x:t>
+    <x:t>159.56 x 900</x:t>
   </x:si>
   <x:si>
     <x:t>156.91 - 175.00</x:t>
